--- a/dados/exercicio3.xlsx
+++ b/dados/exercicio3.xlsx
@@ -24,10 +24,10 @@
     <t>Mais de 5</t>
   </si>
   <si>
-    <t>Número de filhos</t>
+    <t>fil</t>
   </si>
   <si>
-    <t>fil</t>
+    <t>Numero de filhos</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,13 +392,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
